--- a/document/UI流程图 初版.xlsx
+++ b/document/UI流程图 初版.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13710"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13710" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="UI流程图及主要功能点" sheetId="1" r:id="rId1"/>
+    <sheet name="CN" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>系统概述</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -259,6 +260,18 @@
   </si>
   <si>
     <t>【相关逻辑】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入庄园界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入用户名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4885,8 +4898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y229"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A148" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L174" sqref="L174"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5563,4 +5576,39 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/document/UI流程图 初版.xlsx
+++ b/document/UI流程图 初版.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13710" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13710"/>
   </bookViews>
   <sheets>
     <sheet name="UI流程图及主要功能点" sheetId="1" r:id="rId1"/>
@@ -411,6 +411,44 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>149088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>343688</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>140805</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9317934" y="7396371"/>
+          <a:ext cx="3399971" cy="5996608"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -430,7 +468,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -468,7 +506,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -506,7 +544,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -515,44 +553,6 @@
         <a:xfrm>
           <a:off x="5564972" y="7477164"/>
           <a:ext cx="3398054" cy="6057970"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>401301</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>432170</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9316701" y="7477125"/>
-          <a:ext cx="3459869" cy="6076950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -640,15 +640,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>611672</xdr:colOff>
+      <xdr:colOff>578542</xdr:colOff>
       <xdr:row>229</xdr:row>
-      <xdr:rowOff>56321</xdr:rowOff>
+      <xdr:rowOff>48038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>565281</xdr:colOff>
+      <xdr:colOff>532151</xdr:colOff>
       <xdr:row>235</xdr:row>
-      <xdr:rowOff>172934</xdr:rowOff>
+      <xdr:rowOff>164651</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -665,8 +665,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1297472" y="48043271"/>
-          <a:ext cx="3382609" cy="1373913"/>
+          <a:off x="1265999" y="47465973"/>
+          <a:ext cx="3390891" cy="1359004"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1082,7 +1082,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1973,7 +1973,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2581,11 +2581,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId10">
+                <a14:imgLayer r:embed="rId11">
                   <a14:imgEffect>
                     <a14:sharpenSoften amount="-100000"/>
                   </a14:imgEffect>
@@ -2693,7 +2693,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2731,7 +2731,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2769,7 +2769,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2807,7 +2807,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4162,7 +4162,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4242,15 +4242,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>490794</xdr:colOff>
+      <xdr:colOff>451298</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>70509</xdr:rowOff>
+      <xdr:rowOff>59240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>165996</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>164635</xdr:rowOff>
+      <xdr:colOff>126500</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>96002</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4259,8 +4259,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="18110869">
-          <a:off x="11397007" y="10938446"/>
-          <a:ext cx="3237376" cy="361002"/>
+          <a:off x="11331942" y="10870748"/>
+          <a:ext cx="3349805" cy="362659"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -4322,7 +4322,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4628,6 +4628,158 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>455543</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330804</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>64137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="48933651"/>
+          <a:ext cx="4000000" cy="7038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>145272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165652</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>104022</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="图片 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="56052881"/>
+          <a:ext cx="2915478" cy="2029402"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>180243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>588065</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>54827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="图片 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="58365569"/>
+          <a:ext cx="6087717" cy="1738171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>356152</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>165653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>420631</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>82827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3105978" y="56073262"/>
+          <a:ext cx="2814305" cy="1987826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4898,8 +5050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y229"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A265" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O273" sqref="O273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5582,8 +5734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>

--- a/document/UI流程图 初版.xlsx
+++ b/document/UI流程图 初版.xlsx
@@ -15,7 +15,7 @@
     <sheet name="UI流程图及主要功能点" sheetId="1" r:id="rId1"/>
     <sheet name="CN" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>系统概述</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -227,51 +227,99 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>【战斗结果模拟】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击图像区域，显示点击点横坐标绝对值最小的事件显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖的价格会随着世界事件而波动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在交易时也会有一个随着世界事件而波动的中间人费用（税率）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易的基础功能就是和NPC之间的买和卖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【界面信息】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许购买的物品以及对应能够购买的上限与个人等级相关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【相关逻辑】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入庄园界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入用户名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【大门损坏及修复】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>• 战斗结果模拟界面详见UI流程内</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>【战斗结果模拟】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击图像区域，显示点击点横坐标绝对值最小的事件显示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖的价格会随着世界事件而波动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在交易时也会有一个随着世界事件而波动的中间人费用（税率）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易的基础功能就是和NPC之间的买和卖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【界面信息】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许购买的物品以及对应能够购买的上限与个人等级相关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【相关逻辑】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入庄园界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入用户名</t>
+    <t>• 僵尸攻击大门后，大门会损耗耐久度，当耐久度=0时，大门损毁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.损坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.修复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.修复消耗资源计算：修复1个耐久度    消耗   k5*（庄园等级*k1)^k2   个黄金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有损伤可修复状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全损毁状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>• 大门被彻底破坏之后（剩余耐久度=0），大门变回一堆木柴，废墟上一直显示“锤子+扳手”的图标提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>• 大门损伤之后（剩余耐久度＞0），大门建筑上一直显示“锤子+扳手”的图标提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>• 点击图标/建筑模型后，在原基础上多出“修复”按钮，按钮下显示了完全修复需要消耗的黄金（此时不能升级大门）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>• 点击按钮后，弹窗询问玩家是否修复（弹窗内包含消耗资源信息），点击确定，资源扣除，记录、结算贡献值/股权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>• 具体k值见系数表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -411,6 +459,82 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>564174</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>36636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520212</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>154328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3319097" y="43807674"/>
+          <a:ext cx="2022230" cy="1180096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>593481</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>688300</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>188932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="图片 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1282212" y="42188423"/>
+          <a:ext cx="3538473" cy="1346586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
       <xdr:row>35</xdr:row>
@@ -430,7 +554,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -449,16 +573,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>652255</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>20292</xdr:rowOff>
+      <xdr:rowOff>103118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>636672</xdr:colOff>
+      <xdr:colOff>553846</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>130452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -468,15 +592,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5534025" y="648942"/>
-          <a:ext cx="3332247" cy="6104284"/>
+          <a:off x="5464451" y="724314"/>
+          <a:ext cx="3338873" cy="6032225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -488,15 +612,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>354910</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7040</xdr:rowOff>
+      <xdr:colOff>479149</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>147845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>291642</xdr:colOff>
+      <xdr:colOff>415881</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>9939</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -506,15 +630,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9270310" y="635690"/>
-          <a:ext cx="3365732" cy="6146110"/>
+          <a:off x="9416084" y="561975"/>
+          <a:ext cx="3374014" cy="6074051"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -544,7 +668,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -582,7 +706,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -620,7 +744,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -641,14 +765,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>578542</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>48038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>532151</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>164651</xdr:rowOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>164650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -658,7 +782,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -679,13 +803,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>274</xdr:row>
       <xdr:rowOff>58393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>513930</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>280</xdr:row>
       <xdr:rowOff>162999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -696,7 +820,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1044,7 +1168,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1082,7 +1206,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1973,7 +2097,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2068,13 +2192,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>99390</xdr:colOff>
       <xdr:row>168</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>417443</xdr:colOff>
+      <xdr:colOff>430695</xdr:colOff>
       <xdr:row>171</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -2085,8 +2209,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76200" y="36947475"/>
-          <a:ext cx="1027043" cy="628650"/>
+          <a:off x="99390" y="34853632"/>
+          <a:ext cx="1018762" cy="621195"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -2376,7 +2500,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>566531</xdr:colOff>
       <xdr:row>184</xdr:row>
-      <xdr:rowOff>124239</xdr:rowOff>
+      <xdr:rowOff>99391</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2385,8 +2509,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5024231" y="37810109"/>
-          <a:ext cx="1028700" cy="871330"/>
+          <a:off x="5035827" y="37362848"/>
+          <a:ext cx="1030356" cy="836543"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -2581,11 +2705,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId11">
+                <a14:imgLayer r:embed="rId13">
                   <a14:imgEffect>
                     <a14:sharpenSoften amount="-100000"/>
                   </a14:imgEffect>
@@ -2630,8 +2754,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="628650" y="2714625"/>
-          <a:ext cx="3057525" cy="438150"/>
+          <a:off x="13690324" y="3624884"/>
+          <a:ext cx="3065808" cy="433180"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2693,7 +2817,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2731,7 +2855,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2769,7 +2893,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2807,7 +2931,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4162,7 +4286,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4194,7 +4318,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1905001" y="2809875"/>
+          <a:off x="14969988" y="3720134"/>
           <a:ext cx="495300" cy="334451"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4305,14 +4429,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>38795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>114370</xdr:rowOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>114369</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4322,7 +4446,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4343,13 +4467,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>538369</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>272</xdr:row>
       <xdr:rowOff>7040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>614569</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>185530</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4425,7 +4549,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1159329" cy="312330"/>
@@ -4500,13 +4624,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>198665</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>250</xdr:row>
       <xdr:rowOff>131355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>251</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4552,13 +4676,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>538369</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>272</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>614569</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>178490</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4634,14 +4758,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>455543</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>66260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>330804</xdr:colOff>
-      <xdr:row>270</xdr:row>
-      <xdr:rowOff>64137</xdr:rowOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>64138</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4651,14 +4775,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1143000" y="48933651"/>
+          <a:off x="1143000" y="59908108"/>
           <a:ext cx="4000000" cy="7038095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4672,13 +4796,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>270</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>145272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>165652</xdr:colOff>
-      <xdr:row>280</xdr:row>
+      <xdr:row>333</xdr:row>
       <xdr:rowOff>104022</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4689,7 +4813,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4710,13 +4834,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>281</xdr:row>
+      <xdr:row>334</xdr:row>
       <xdr:rowOff>180243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>588065</xdr:colOff>
-      <xdr:row>290</xdr:row>
+      <xdr:row>343</xdr:row>
       <xdr:rowOff>54827</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4727,7 +4851,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4748,13 +4872,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>356152</xdr:colOff>
-      <xdr:row>270</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>165653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>420631</xdr:colOff>
-      <xdr:row>280</xdr:row>
+      <xdr:row>333</xdr:row>
       <xdr:rowOff>82827</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4765,7 +4889,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4780,6 +4904,562 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>512887</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>58613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6479</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>160132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="图片 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1201618" y="40004998"/>
+          <a:ext cx="1559784" cy="1588884"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="C:\Users\90km\Documents\Tencent Files\1004523381\Image\C2C\)]~H2DE`3@`}$&amp;V0NTSD3.png"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3429000" y="41281350"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2" descr="C:\Users\90km\Documents\Tencent Files\1004523381\Image\C2C\)]~H2DE`3@`}$&amp;V0NTSD3.png"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9601200" y="38347650"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>351693</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>65944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>674077</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>186541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="图片 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3106616" y="40012329"/>
+          <a:ext cx="1699846" cy="1607962"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>212481</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>124557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>555381</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="线形标注 2 86"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5033596" y="40708384"/>
+          <a:ext cx="1031631" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54181"/>
+            <a:gd name="adj2" fmla="val -5864"/>
+            <a:gd name="adj3" fmla="val 34018"/>
+            <a:gd name="adj4" fmla="val -14684"/>
+            <a:gd name="adj5" fmla="val -19089"/>
+            <a:gd name="adj6" fmla="val -88441"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>完全损坏图标</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="线形标注 2 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5011615" y="43404692"/>
+          <a:ext cx="1031631" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54181"/>
+            <a:gd name="adj2" fmla="val -5864"/>
+            <a:gd name="adj3" fmla="val 34018"/>
+            <a:gd name="adj4" fmla="val -14684"/>
+            <a:gd name="adj5" fmla="val 13219"/>
+            <a:gd name="adj6" fmla="val -91992"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>修好需要消耗的黄金数量</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>183174</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>205153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>526074</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>43961</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="线形标注 2 88"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5004289" y="42701307"/>
+          <a:ext cx="1031631" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54181"/>
+            <a:gd name="adj2" fmla="val -5864"/>
+            <a:gd name="adj3" fmla="val 34018"/>
+            <a:gd name="adj4" fmla="val -14684"/>
+            <a:gd name="adj5" fmla="val 911"/>
+            <a:gd name="adj6" fmla="val -134606"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>剩余的耐久度</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>43963</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>124561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>80596</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="右箭头 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2729282" y="43540242"/>
+          <a:ext cx="380996" cy="241788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>622788</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>102297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>417634</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>127241</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="图片 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1311519" y="43873335"/>
+          <a:ext cx="1861038" cy="1087348"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>337038</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>153865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>578826</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>109900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="右箭头 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3711088" y="43569546"/>
+          <a:ext cx="380996" cy="241788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5048,10 +5728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y229"/>
+  <dimension ref="A1:Y310"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A265" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O273" sqref="O273"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B179" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L199" sqref="L199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5642,17 +6322,17 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J160" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="163" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J163" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="164" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J164" s="4" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="165" spans="10:10" x14ac:dyDescent="0.15">
@@ -5675,51 +6355,118 @@
         <v>47</v>
       </c>
     </row>
-    <row r="186" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="2" t="s">
+    <row r="184" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="O184"/>
+    </row>
+    <row r="186" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="J186" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="187" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="J187" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="188" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="J188" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="190" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="J190" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="191" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="J191" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="192" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="J192" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="193" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="J193" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="194" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="J194" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="196" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="J196" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="197" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C197" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J197" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="198" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="F198"/>
+    </row>
+    <row r="239" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I186" s="6"/>
-      <c r="J186" s="3"/>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="J187" s="5" t="s">
+      <c r="I239" s="6"/>
+      <c r="J239" s="3"/>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J240" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="J188" s="4" t="s">
+    <row r="241" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J241" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="242" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J242" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="243" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J243" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="244" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J244" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="252" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J252" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="J189" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="J190" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="J191" s="4" t="s">
+    <row r="256" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J256" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="199" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J199" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="203" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J203" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C229" s="1" t="s">
-        <v>52</v>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C282" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="310" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I310" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5745,17 +6492,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
